--- a/项目进度计划表.xlsx
+++ b/项目进度计划表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xinda\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -75,15 +75,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>列表页、商品详情及
-首页相关部分</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>店铺列表、店铺首页、知识产权及首页相关部分</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>会员中心、用户评价、账户设置、隐私设置</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -252,6 +243,15 @@
   </si>
   <si>
     <t xml:space="preserve">    二、项目进度表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情、财税服务、列表页、公司工商及首页相关部分</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺列表、店铺首页及
+首页相关部分</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -604,115 +604,115 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="12" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="7" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="7" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1005,7 +1005,7 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1020,350 +1020,350 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="34"/>
+      <c r="G3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="35"/>
+      <c r="G4" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:8" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="23"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
+      <c r="B8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="36"/>
+      <c r="B9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37"/>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="33"/>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="2" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="26"/>
+    </row>
+    <row r="16" spans="1:8" s="2" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="23"/>
-    </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="21"/>
-    </row>
-    <row r="7" spans="1:8" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="27" t="s">
+      <c r="H16" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="2" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="C17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="30"/>
-    </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="30"/>
-    </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="36"/>
-    </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="38" t="s">
+      <c r="F17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="40"/>
-      <c r="H17" s="41"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="27"/>
     </row>
     <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
@@ -1484,8 +1484,22 @@
       <c r="A56" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rgsRbI6iVuN2lAAEYksdPBKHTb7H6JxSzye69SbTP21UOzzAyHIfplSijmrv6IipWl8pYyzAiDVsdxn2fGjA7Q==" saltValue="hhvkG+xG6bIgM2PIoIlVYQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iJbNBOtufaAf+yIuk2aceEdPXcy7F9mQaloIWp7V2HcTwWgAy8mm/2+TKDivuEKNUsHpGj/ypZ9VGBChSEAL1w==" saltValue="FcmX7ZNWg2efpOYI6vGz8w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="30">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A6:H6"/>
@@ -1502,20 +1516,6 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
